--- a/Book2.xlsx
+++ b/Book2.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t xml:space="preserve">Оружие</t>
   </si>
@@ -113,6 +113,21 @@
   </si>
   <si>
     <t xml:space="preserve">Авелин</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Асторский прямой меч</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Меч дракона</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Балдерский меч</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Большой лунный меч</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Меч Черного Рыцаря</t>
   </si>
 </sst>
 </file>
@@ -221,23 +236,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F25" activeCellId="0" sqref="F25"/>
+      <selection pane="topLeft" activeCell="B27" activeCellId="0" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.5703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.6015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="7.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="17.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="7.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="13.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="7.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="16.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="6.4"/>
@@ -245,7 +260,6 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="6.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="7.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="5.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="9.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="13.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="12.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="13.5"/>
@@ -954,6 +968,166 @@
         <v>0</v>
       </c>
       <c r="J22" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J27" s="0" t="n">
         <v>1</v>
       </c>
     </row>
